--- a/biology/Zoologie/Europasaurus/Europasaurus.xlsx
+++ b/biology/Zoologie/Europasaurus/Europasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Europasaurus holgeri
 Europasaurus (« reptile d'Europe ») est un genre de dinosaures sauropodes Macronaria, quadrupèdes et herbivores.
@@ -514,9 +526,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Europasaurus et l'espèce Europasaurus holgeri ont été décrits en 2006 par Paul Martin Sander (d), Octávio Mateus, Thomas Laven (d) et Nils Knötschke (d) avec comme espèce type Europasaurus holgeri[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Europasaurus et l'espèce Europasaurus holgeri ont été décrits en 2006 par Paul Martin Sander (d), Octávio Mateus, Thomas Laven (d) et Nils Knötschke (d) avec comme espèce type Europasaurus holgeri.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) P. Martin Sander, Octávio Mateus, Thomas Laven et Nils Knötschke, « Bone histology indicates insular dwarfism in a new Late Jurassic sauropod dinosaur », Nature, NPG et Springer Science+Business Media, vol. 441, no 7094,‎ 8 juin 2006, p. 739-741 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 16760975, DOI 10.1038/NATURE04633, lire en ligne)</t>
         </is>
